--- a/INTLINE/data/144/SCB/Detoms2005.xlsx
+++ b/INTLINE/data/144/SCB/Detoms2005.xlsx
@@ -724,22 +724,22 @@
     <x:t>Contact:</x:t>
   </x:si>
   <x:si>
-    <x:t>Stefan Björnsbacka, Statistics Sweden</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> +46 010-479 69 51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stefan.bjornsbacka@scb.se</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Johan Hansson, Statistics Sweden</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> +46 010-479 63 59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>johan.hansson@scb.se</x:t>
+    <x:t>Johan Nyström, Statistics Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> +46 010-479 42 22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>johan.nystrom@scb.se</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thorsten Holzer, Statistics Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> +46 010-479 58 42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>thorsten.holzer@scb.se</x:t>
   </x:si>
   <x:si>
     <x:t>Units:</x:t>
